--- a/resources/sample.xlsx
+++ b/resources/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puffi\Documents\Python Projects\CardCollectionCalculator\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E8FBCF-5B20-418D-B4AB-F4F74DFB9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF65D0-3DB3-4411-B1F3-03E5CD619831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81171D2B-3EF1-45B7-9C56-A14686D2F5AA}"/>
   </bookViews>
@@ -35,8 +35,143 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Enzo Denici</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DA311E63-59A4-4D53-87F7-205E49F34D9F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OPTIONAL: If any value is present, unit &amp; total price will be recalculated on next run. If cell is left empty, price will not be recalculated. Unit Price is always calculated if Unit Price is 0 or empty, regardless of this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A3DB69A4-7183-4173-A79D-33681A1E770D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>How many copies of an item are in the collection. If left blank or &lt;1, entire row will be ignored and prices will be zeroed out.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DAD968BC-CCF9-4A9D-9EB5-765BD68C2FE7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OPTIONAL: Card rarity (if applicable). Will assume lowest possible rarity if left blank. List of supported rarities found in README.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43934B5D-B6A7-45E1-A174-71307DD25029}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Card Name. Is not case sensitive and will ignore punctuation. Make sure name is otherwise correct, or the query will not find the card.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{25BD91BD-DF1E-4A65-8886-2A6ED3ACB636}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LEAVE EMPTY: Price of the card as calculated by the script. Should be left empty by default. If there is a value present in this cell, and recalc is not checked, script will continue to use the old price.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{04F8551A-3D99-4F49-ABB1-B4D6CDB5E700}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quantity * Unit Price</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{CF70B6E5-8903-4143-9846-A87626E0B9E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OPTIONAL: Set Name for the card. Can be the full set name (e.g. SETN-EN000) or just the prefix (e.g. SETN). If left empty, will assume the matching card from the cheapest set.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D40CF260-02B0-4202-8259-4C2269978FAE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OPTIONAL: One character print edition. E.g. 1st Edition, Unlimited, Limited, etc. Currently supports:
+1st Edition: F
+Unlimited: U
+Limited: L
+Assumes cheapest printing if left empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{8338F99A-3454-46AC-9669-1BDAB911193B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OPTIONAL: Condition of the card. Accepts:
+NM = Near Mint
+LP = Lightly Played
+MP = Moderately Played
+Defaults to NM</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Recalc</t>
   </si>
@@ -56,9 +191,6 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t>Set</t>
-  </si>
-  <si>
     <t>Edition</t>
   </si>
   <si>
@@ -78,19 +210,34 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Set Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,20 +595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745858CB-30F1-48CF-B2F6-C50F6E7A97D4}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745858CB-30F1-48CF-B2F6-C50F6E7A97D4}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="68.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,41 +628,48 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>